--- a/Plantilla_Débitos_1.xlsx
+++ b/Plantilla_Débitos_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knunez\Documents\Mi proyecto\Proyecto convertidor de facturas\Final v1\Detalle-de-factura-y-refa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E418993-B441-40DB-BD3B-5EF2ABB13226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53AED28-C7AC-4669-B29C-CC14DFD92E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{FE56A788-B40B-4ED6-87C4-9F6FB9635C81}"/>
   </bookViews>
@@ -402,8 +402,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{C7BE95ED-D9CA-4F56-AFE1-02CCCCD86E35}" name="Tabla_Debitos" displayName="Tabla_Debitos" ref="A2:T10" totalsRowShown="0">
-  <autoFilter ref="A2:T10" xr:uid="{C7BE95ED-D9CA-4F56-AFE1-02CCCCD86E35}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{C7BE95ED-D9CA-4F56-AFE1-02CCCCD86E35}" name="Tabla_Debitos" displayName="Tabla_Debitos" ref="A2:T100" totalsRowShown="0">
+  <autoFilter ref="A2:T100" xr:uid="{C7BE95ED-D9CA-4F56-AFE1-02CCCCD86E35}"/>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{ABE8600A-83FE-46F2-A970-EF6AA3E3DE47}" name="APELLIDO Y NOMBRE"/>
     <tableColumn id="2" xr3:uid="{2EE20B9B-498C-4FFB-859B-B054E128B110}" name="COD.NOM"/>
@@ -1042,11 +1042,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82FF8513-42F3-4A3F-AAB0-87387EA48889}">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1293,9 +1293,1809 @@
       </c>
       <c r="R10" s="2"/>
     </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="3">
+        <f t="shared" ref="I11:I42" si="4">+IFERROR(H11/G11,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="3">
+        <f t="shared" ref="N11:N42" si="5">+IFERROR(M11/H11,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="3">
+        <f t="shared" ref="Q11:Q42" si="6">+IFERROR(P11/H11,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="2"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="2"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="2"/>
+    </row>
+    <row r="17" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="2"/>
+    </row>
+    <row r="18" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="2"/>
+    </row>
+    <row r="19" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="2"/>
+    </row>
+    <row r="20" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="2"/>
+    </row>
+    <row r="21" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="2"/>
+    </row>
+    <row r="22" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="2"/>
+    </row>
+    <row r="23" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="2"/>
+    </row>
+    <row r="24" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="2"/>
+    </row>
+    <row r="25" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="2"/>
+    </row>
+    <row r="26" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="2"/>
+    </row>
+    <row r="27" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="2"/>
+    </row>
+    <row r="28" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="2"/>
+    </row>
+    <row r="29" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="2"/>
+    </row>
+    <row r="30" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="2"/>
+    </row>
+    <row r="31" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="2"/>
+    </row>
+    <row r="32" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="2"/>
+    </row>
+    <row r="33" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="2"/>
+    </row>
+    <row r="34" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="2"/>
+    </row>
+    <row r="35" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="2"/>
+    </row>
+    <row r="36" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="2"/>
+    </row>
+    <row r="37" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="2"/>
+    </row>
+    <row r="38" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="2"/>
+    </row>
+    <row r="39" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="2"/>
+    </row>
+    <row r="40" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R40" s="2"/>
+    </row>
+    <row r="41" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R41" s="2"/>
+    </row>
+    <row r="42" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R42" s="2"/>
+    </row>
+    <row r="43" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="3">
+        <f t="shared" ref="I43:I74" si="7">+IFERROR(H43/G43,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="3">
+        <f t="shared" ref="N43:N74" si="8">+IFERROR(M43/H43,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="3">
+        <f t="shared" ref="Q43:Q74" si="9">+IFERROR(P43/H43,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R43" s="2"/>
+    </row>
+    <row r="44" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R44" s="2"/>
+    </row>
+    <row r="45" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R45" s="2"/>
+    </row>
+    <row r="46" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R46" s="2"/>
+    </row>
+    <row r="47" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R47" s="2"/>
+    </row>
+    <row r="48" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R48" s="2"/>
+    </row>
+    <row r="49" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R49" s="2"/>
+    </row>
+    <row r="50" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R50" s="2"/>
+    </row>
+    <row r="51" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R51" s="2"/>
+    </row>
+    <row r="52" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R52" s="2"/>
+    </row>
+    <row r="53" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R53" s="2"/>
+    </row>
+    <row r="54" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R54" s="2"/>
+    </row>
+    <row r="55" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R55" s="2"/>
+    </row>
+    <row r="56" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R56" s="2"/>
+    </row>
+    <row r="57" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R57" s="2"/>
+    </row>
+    <row r="58" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R58" s="2"/>
+    </row>
+    <row r="59" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R59" s="2"/>
+    </row>
+    <row r="60" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R60" s="2"/>
+    </row>
+    <row r="61" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R61" s="2"/>
+    </row>
+    <row r="62" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R62" s="2"/>
+    </row>
+    <row r="63" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R63" s="2"/>
+    </row>
+    <row r="64" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R64" s="2"/>
+    </row>
+    <row r="65" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R65" s="2"/>
+    </row>
+    <row r="66" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R66" s="2"/>
+    </row>
+    <row r="67" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R67" s="2"/>
+    </row>
+    <row r="68" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R68" s="2"/>
+    </row>
+    <row r="69" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R69" s="2"/>
+    </row>
+    <row r="70" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R70" s="2"/>
+    </row>
+    <row r="71" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R71" s="2"/>
+    </row>
+    <row r="72" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R72" s="2"/>
+    </row>
+    <row r="73" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R73" s="2"/>
+    </row>
+    <row r="74" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R74" s="2"/>
+    </row>
+    <row r="75" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="3">
+        <f t="shared" ref="I75:I106" si="10">+IFERROR(H75/G75,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="3">
+        <f t="shared" ref="N75:N106" si="11">+IFERROR(M75/H75,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="3">
+        <f t="shared" ref="Q75:Q106" si="12">+IFERROR(P75/H75,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R75" s="2"/>
+    </row>
+    <row r="76" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R76" s="2"/>
+    </row>
+    <row r="77" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R77" s="2"/>
+    </row>
+    <row r="78" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R78" s="2"/>
+    </row>
+    <row r="79" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R79" s="2"/>
+    </row>
+    <row r="80" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R80" s="2"/>
+    </row>
+    <row r="81" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R81" s="2"/>
+    </row>
+    <row r="82" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R82" s="2"/>
+    </row>
+    <row r="83" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R83" s="2"/>
+    </row>
+    <row r="84" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M84" s="2"/>
+      <c r="N84" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R84" s="2"/>
+    </row>
+    <row r="85" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M85" s="2"/>
+      <c r="N85" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R85" s="2"/>
+    </row>
+    <row r="86" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R86" s="2"/>
+    </row>
+    <row r="87" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R87" s="2"/>
+    </row>
+    <row r="88" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M88" s="2"/>
+      <c r="N88" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R88" s="2"/>
+    </row>
+    <row r="89" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M89" s="2"/>
+      <c r="N89" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R89" s="2"/>
+    </row>
+    <row r="90" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R90" s="2"/>
+    </row>
+    <row r="91" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M91" s="2"/>
+      <c r="N91" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R91" s="2"/>
+    </row>
+    <row r="92" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M92" s="2"/>
+      <c r="N92" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R92" s="2"/>
+    </row>
+    <row r="93" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M93" s="2"/>
+      <c r="N93" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R93" s="2"/>
+    </row>
+    <row r="94" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M94" s="2"/>
+      <c r="N94" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R94" s="2"/>
+    </row>
+    <row r="95" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M95" s="2"/>
+      <c r="N95" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R95" s="2"/>
+    </row>
+    <row r="96" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M96" s="2"/>
+      <c r="N96" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R96" s="2"/>
+    </row>
+    <row r="97" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M97" s="2"/>
+      <c r="N97" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R97" s="2"/>
+    </row>
+    <row r="98" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M98" s="2"/>
+      <c r="N98" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R98" s="2"/>
+    </row>
+    <row r="99" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M99" s="2"/>
+      <c r="N99" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R99" s="2"/>
+    </row>
+    <row r="100" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M100" s="2"/>
+      <c r="N100" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R100" s="2"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L10" xr:uid="{3C1DFC40-31C3-4E27-A6D5-5100550A5EAD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L100" xr:uid="{3C1DFC40-31C3-4E27-A6D5-5100550A5EAD}">
       <formula1>INDIRECT(K3)</formula1>
     </dataValidation>
   </dataValidations>
@@ -1310,7 +3110,7 @@
           <x14:formula1>
             <xm:f>Listas!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>K3:K10</xm:sqref>
+          <xm:sqref>K3:K100</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Plantilla_Débitos_1.xlsx
+++ b/Plantilla_Débitos_1.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knunez\Documents\Mi proyecto\Proyecto convertidor de facturas\Final v1\Detalle-de-factura-y-refa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53AED28-C7AC-4669-B29C-CC14DFD92E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC71A834-B377-4960-8B94-26D2E3ECDA49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{FE56A788-B40B-4ED6-87C4-9F6FB9635C81}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FE56A788-B40B-4ED6-87C4-9F6FB9635C81}"/>
   </bookViews>
   <sheets>
-    <sheet name="Listas" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="Listas" sheetId="1" r:id="rId1"/>
     <sheet name="Debitos" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="83">
   <si>
     <t>SECTOR</t>
   </si>
@@ -171,9 +171,6 @@
     <t>PRESTACION NO AUTORIZADA / NO VALIDADA / NO POSEE TOKEN</t>
   </si>
   <si>
-    <t xml:space="preserve">PRESTACION NO CONVENIDA / HOMOLOGADA </t>
-  </si>
-  <si>
     <t xml:space="preserve">SOBREFACTURACION </t>
   </si>
   <si>
@@ -271,6 +268,24 @@
   </si>
   <si>
     <t>MEDICAMENTO. DIFERENCIA DE VALOR</t>
+  </si>
+  <si>
+    <t>PRACTICA NO CONVENIDA</t>
+  </si>
+  <si>
+    <t>FALTA DOCUMENTACIÓN DE RESPALDO</t>
+  </si>
+  <si>
+    <t>FALTA STICKER / TROQUEL</t>
+  </si>
+  <si>
+    <t>FALTA AUTORIZACIÓN</t>
+  </si>
+  <si>
+    <t>SEGÚN NORMAS NOMENCLADOR NACIONAL</t>
+  </si>
+  <si>
+    <t>DIFERENCIA DE VALOR EN DETALLE</t>
   </si>
 </sst>
 </file>
@@ -280,7 +295,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,6 +309,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -317,13 +338,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -362,8 +386,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5AC9A4D2-A22F-4D0D-B0B6-74C270D1D34A}" name="ADMIN" displayName="ADMIN" ref="B1:B35" totalsRowShown="0">
-  <autoFilter ref="B1:B35" xr:uid="{5AC9A4D2-A22F-4D0D-B0B6-74C270D1D34A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5AC9A4D2-A22F-4D0D-B0B6-74C270D1D34A}" name="ADMIN" displayName="ADMIN" ref="B1:B39" totalsRowShown="0">
+  <autoFilter ref="B1:B39" xr:uid="{5AC9A4D2-A22F-4D0D-B0B6-74C270D1D34A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B36">
+    <sortCondition descending="1" ref="B1:B36"/>
+  </sortState>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{A5CE203A-F038-4F1D-BA69-656692299849}" name="ADMIN"/>
   </tableColumns>
@@ -382,8 +409,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2976D8C7-EDDB-4D66-87B6-856995ED5FD5}" name="COMERCIAL" displayName="COMERCIAL" ref="D1:D6" totalsRowShown="0">
-  <autoFilter ref="D1:D6" xr:uid="{2976D8C7-EDDB-4D66-87B6-856995ED5FD5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2976D8C7-EDDB-4D66-87B6-856995ED5FD5}" name="COMERCIAL" displayName="COMERCIAL" ref="D1:D7" totalsRowShown="0">
+  <autoFilter ref="D1:D7" xr:uid="{2976D8C7-EDDB-4D66-87B6-856995ED5FD5}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{BF29E51D-4125-4D03-A373-14DB601FCBD2}" name="COMERCIAL"/>
   </tableColumns>
@@ -753,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5AFBA5A-0C3C-4B50-A1CC-805A185E2404}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -786,13 +813,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -800,7 +827,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -814,7 +841,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -825,7 +852,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -836,7 +863,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
@@ -847,15 +874,18 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
       </c>
+      <c r="D7" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
@@ -863,7 +893,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -871,7 +901,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
@@ -879,7 +909,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
@@ -887,7 +917,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
         <v>26</v>
@@ -895,7 +925,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -903,7 +933,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
         <v>30</v>
@@ -911,7 +941,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
         <v>32</v>
@@ -919,7 +949,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
         <v>33</v>
@@ -927,7 +957,7 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
         <v>35</v>
@@ -935,7 +965,7 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
         <v>37</v>
@@ -943,7 +973,7 @@
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
         <v>39</v>
@@ -951,7 +981,7 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
@@ -961,72 +991,92 @@
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>77</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1044,9 +1094,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82FF8513-42F3-4A3F-AAB0-87387EA48889}">
   <dimension ref="A1:T100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1070,2028 +1120,2813 @@
   <sheetData>
     <row r="1" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
+      <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
         <v>54</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>55</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>56</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>57</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>58</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>59</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>60</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>61</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>62</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
         <v>63</v>
       </c>
-      <c r="K2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>64</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>65</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>66</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>67</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>68</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>69</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>70</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>71</v>
-      </c>
-      <c r="T2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
       <c r="I3" s="3">
         <f t="shared" ref="I3:I4" si="0">+IFERROR(H3/G3,0)</f>
         <v>0</v>
       </c>
-      <c r="M3" s="2"/>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
       <c r="N3" s="3">
         <f>+IFERROR(M3/H3,0)</f>
         <v>0</v>
       </c>
-      <c r="P3" s="2"/>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
       <c r="Q3" s="3">
         <f>+IFERROR(P3/H3,0)</f>
         <v>0</v>
       </c>
-      <c r="R3" s="2"/>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
       <c r="I4" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M4" s="2"/>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
       <c r="N4" s="3">
         <f>+IFERROR(M4/H4,0)</f>
         <v>0</v>
       </c>
-      <c r="P4" s="2"/>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
       <c r="Q4" s="3">
         <f>+IFERROR(P4/H4,0)</f>
         <v>0</v>
       </c>
-      <c r="R4" s="2"/>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
       <c r="I5" s="3">
         <f t="shared" ref="I5:I10" si="1">+IFERROR(H5/G5,0)</f>
         <v>0</v>
       </c>
-      <c r="M5" s="2"/>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
       <c r="N5" s="3">
         <f t="shared" ref="N5:N10" si="2">+IFERROR(M5/H5,0)</f>
         <v>0</v>
       </c>
-      <c r="P5" s="2"/>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
       <c r="Q5" s="3">
         <f t="shared" ref="Q5:Q10" si="3">+IFERROR(P5/H5,0)</f>
         <v>0</v>
       </c>
-      <c r="R5" s="2"/>
+      <c r="R5" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
       <c r="I6" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M6" s="2"/>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
       <c r="N6" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P6" s="2"/>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
       <c r="Q6" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R6" s="2"/>
+      <c r="R6" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
       <c r="I7" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M7" s="2"/>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
       <c r="N7" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P7" s="2"/>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
       <c r="Q7" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R7" s="2"/>
+      <c r="R7" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
       <c r="I8" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M8" s="2"/>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
       <c r="N8" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P8" s="2"/>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
       <c r="Q8" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R8" s="2"/>
+      <c r="R8" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
       <c r="I9" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M9" s="2"/>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
       <c r="N9" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P9" s="2"/>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
       <c r="Q9" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R9" s="2"/>
+      <c r="R9" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
       <c r="I10" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M10" s="2"/>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
       <c r="N10" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P10" s="2"/>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
       <c r="Q10" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R10" s="2"/>
+      <c r="R10" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
       <c r="I11" s="3">
         <f t="shared" ref="I11:I42" si="4">+IFERROR(H11/G11,0)</f>
         <v>0</v>
       </c>
-      <c r="M11" s="2"/>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
       <c r="N11" s="3">
         <f t="shared" ref="N11:N42" si="5">+IFERROR(M11/H11,0)</f>
         <v>0</v>
       </c>
-      <c r="P11" s="2"/>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
       <c r="Q11" s="3">
         <f t="shared" ref="Q11:Q42" si="6">+IFERROR(P11/H11,0)</f>
         <v>0</v>
       </c>
-      <c r="R11" s="2"/>
+      <c r="R11" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
       <c r="I12" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M12" s="2"/>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
       <c r="N12" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P12" s="2"/>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
       <c r="Q12" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R12" s="2"/>
+      <c r="R12" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
       <c r="I13" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M13" s="2"/>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
       <c r="N13" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P13" s="2"/>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
       <c r="Q13" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R13" s="2"/>
+      <c r="R13" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
       <c r="I14" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M14" s="2"/>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
       <c r="N14" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P14" s="2"/>
+      <c r="P14" s="2">
+        <v>0</v>
+      </c>
       <c r="Q14" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R14" s="2"/>
+      <c r="R14" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
       <c r="I15" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M15" s="2"/>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
       <c r="N15" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P15" s="2"/>
+      <c r="P15" s="2">
+        <v>0</v>
+      </c>
       <c r="Q15" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R15" s="2"/>
+      <c r="R15" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
       <c r="I16" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M16" s="2"/>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
       <c r="N16" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P16" s="2"/>
+      <c r="P16" s="2">
+        <v>0</v>
+      </c>
       <c r="Q16" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R16" s="2"/>
+      <c r="R16" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
       <c r="I17" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M17" s="2"/>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
       <c r="N17" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P17" s="2"/>
+      <c r="P17" s="2">
+        <v>0</v>
+      </c>
       <c r="Q17" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R17" s="2"/>
+      <c r="R17" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
       <c r="I18" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M18" s="2"/>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
       <c r="N18" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P18" s="2"/>
+      <c r="P18" s="2">
+        <v>0</v>
+      </c>
       <c r="Q18" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R18" s="2"/>
+      <c r="R18" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
       <c r="I19" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M19" s="2"/>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
       <c r="N19" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P19" s="2"/>
+      <c r="P19" s="2">
+        <v>0</v>
+      </c>
       <c r="Q19" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R19" s="2"/>
+      <c r="R19" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
       <c r="I20" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M20" s="2"/>
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
       <c r="N20" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P20" s="2"/>
+      <c r="P20" s="2">
+        <v>0</v>
+      </c>
       <c r="Q20" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R20" s="2"/>
+      <c r="R20" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
       <c r="I21" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M21" s="2"/>
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
       <c r="N21" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P21" s="2"/>
+      <c r="P21" s="2">
+        <v>0</v>
+      </c>
       <c r="Q21" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R21" s="2"/>
+      <c r="R21" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
       <c r="I22" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M22" s="2"/>
+      <c r="M22" s="2">
+        <v>0</v>
+      </c>
       <c r="N22" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P22" s="2"/>
+      <c r="P22" s="2">
+        <v>0</v>
+      </c>
       <c r="Q22" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R22" s="2"/>
+      <c r="R22" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
       <c r="I23" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M23" s="2"/>
+      <c r="M23" s="2">
+        <v>0</v>
+      </c>
       <c r="N23" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P23" s="2"/>
+      <c r="P23" s="2">
+        <v>0</v>
+      </c>
       <c r="Q23" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R23" s="2"/>
+      <c r="R23" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
       <c r="I24" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M24" s="2"/>
+      <c r="M24" s="2">
+        <v>0</v>
+      </c>
       <c r="N24" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P24" s="2"/>
+      <c r="P24" s="2">
+        <v>0</v>
+      </c>
       <c r="Q24" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R24" s="2"/>
+      <c r="R24" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
       <c r="I25" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M25" s="2"/>
+      <c r="M25" s="2">
+        <v>0</v>
+      </c>
       <c r="N25" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P25" s="2"/>
+      <c r="P25" s="2">
+        <v>0</v>
+      </c>
       <c r="Q25" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R25" s="2"/>
+      <c r="R25" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
       <c r="I26" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M26" s="2"/>
+      <c r="M26" s="2">
+        <v>0</v>
+      </c>
       <c r="N26" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P26" s="2"/>
+      <c r="P26" s="2">
+        <v>0</v>
+      </c>
       <c r="Q26" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R26" s="2"/>
+      <c r="R26" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
       <c r="I27" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M27" s="2"/>
+      <c r="M27" s="2">
+        <v>0</v>
+      </c>
       <c r="N27" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P27" s="2"/>
+      <c r="P27" s="2">
+        <v>0</v>
+      </c>
       <c r="Q27" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R27" s="2"/>
+      <c r="R27" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
       <c r="I28" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M28" s="2"/>
+      <c r="M28" s="2">
+        <v>0</v>
+      </c>
       <c r="N28" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P28" s="2"/>
+      <c r="P28" s="2">
+        <v>0</v>
+      </c>
       <c r="Q28" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R28" s="2"/>
+      <c r="R28" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
       <c r="I29" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M29" s="2"/>
+      <c r="M29" s="2">
+        <v>0</v>
+      </c>
       <c r="N29" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P29" s="2"/>
+      <c r="P29" s="2">
+        <v>0</v>
+      </c>
       <c r="Q29" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R29" s="2"/>
+      <c r="R29" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
       <c r="I30" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M30" s="2"/>
+      <c r="M30" s="2">
+        <v>0</v>
+      </c>
       <c r="N30" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P30" s="2"/>
+      <c r="P30" s="2">
+        <v>0</v>
+      </c>
       <c r="Q30" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R30" s="2"/>
+      <c r="R30" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
       <c r="I31" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M31" s="2"/>
+      <c r="M31" s="2">
+        <v>0</v>
+      </c>
       <c r="N31" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P31" s="2"/>
+      <c r="P31" s="2">
+        <v>0</v>
+      </c>
       <c r="Q31" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R31" s="2"/>
+      <c r="R31" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
       <c r="I32" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M32" s="2"/>
+      <c r="M32" s="2">
+        <v>0</v>
+      </c>
       <c r="N32" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P32" s="2"/>
+      <c r="P32" s="2">
+        <v>0</v>
+      </c>
       <c r="Q32" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R32" s="2"/>
+      <c r="R32" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
       <c r="I33" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M33" s="2"/>
+      <c r="M33" s="2">
+        <v>0</v>
+      </c>
       <c r="N33" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P33" s="2"/>
+      <c r="P33" s="2">
+        <v>0</v>
+      </c>
       <c r="Q33" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R33" s="2"/>
+      <c r="R33" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
       <c r="I34" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M34" s="2"/>
+      <c r="M34" s="2">
+        <v>0</v>
+      </c>
       <c r="N34" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P34" s="2"/>
+      <c r="P34" s="2">
+        <v>0</v>
+      </c>
       <c r="Q34" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R34" s="2"/>
+      <c r="R34" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
       <c r="I35" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M35" s="2"/>
+      <c r="M35" s="2">
+        <v>0</v>
+      </c>
       <c r="N35" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P35" s="2"/>
+      <c r="P35" s="2">
+        <v>0</v>
+      </c>
       <c r="Q35" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R35" s="2"/>
+      <c r="R35" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
       <c r="I36" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M36" s="2"/>
+      <c r="M36" s="2">
+        <v>0</v>
+      </c>
       <c r="N36" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P36" s="2"/>
+      <c r="P36" s="2">
+        <v>0</v>
+      </c>
       <c r="Q36" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R36" s="2"/>
+      <c r="R36" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
       <c r="I37" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M37" s="2"/>
+      <c r="M37" s="2">
+        <v>0</v>
+      </c>
       <c r="N37" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P37" s="2"/>
+      <c r="P37" s="2">
+        <v>0</v>
+      </c>
       <c r="Q37" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R37" s="2"/>
+      <c r="R37" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
+      <c r="H38" s="2">
+        <v>0</v>
+      </c>
       <c r="I38" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M38" s="2"/>
+      <c r="M38" s="2">
+        <v>0</v>
+      </c>
       <c r="N38" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P38" s="2"/>
+      <c r="P38" s="2">
+        <v>0</v>
+      </c>
       <c r="Q38" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R38" s="2"/>
+      <c r="R38" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
+      <c r="H39" s="2">
+        <v>0</v>
+      </c>
       <c r="I39" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M39" s="2"/>
+      <c r="M39" s="2">
+        <v>0</v>
+      </c>
       <c r="N39" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P39" s="2"/>
+      <c r="P39" s="2">
+        <v>0</v>
+      </c>
       <c r="Q39" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R39" s="2"/>
+      <c r="R39" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
+      <c r="H40" s="2">
+        <v>0</v>
+      </c>
       <c r="I40" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M40" s="2"/>
+      <c r="M40" s="2">
+        <v>0</v>
+      </c>
       <c r="N40" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P40" s="2"/>
+      <c r="P40" s="2">
+        <v>0</v>
+      </c>
       <c r="Q40" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R40" s="2"/>
+      <c r="R40" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
+      <c r="H41" s="2">
+        <v>0</v>
+      </c>
       <c r="I41" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M41" s="2"/>
+      <c r="M41" s="2">
+        <v>0</v>
+      </c>
       <c r="N41" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P41" s="2"/>
+      <c r="P41" s="2">
+        <v>0</v>
+      </c>
       <c r="Q41" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R41" s="2"/>
+      <c r="R41" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
       <c r="I42" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M42" s="2"/>
+      <c r="M42" s="2">
+        <v>0</v>
+      </c>
       <c r="N42" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P42" s="2"/>
+      <c r="P42" s="2">
+        <v>0</v>
+      </c>
       <c r="Q42" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R42" s="2"/>
+      <c r="R42" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
       <c r="I43" s="3">
         <f t="shared" ref="I43:I74" si="7">+IFERROR(H43/G43,0)</f>
         <v>0</v>
       </c>
-      <c r="M43" s="2"/>
+      <c r="M43" s="2">
+        <v>0</v>
+      </c>
       <c r="N43" s="3">
         <f t="shared" ref="N43:N74" si="8">+IFERROR(M43/H43,0)</f>
         <v>0</v>
       </c>
-      <c r="P43" s="2"/>
+      <c r="P43" s="2">
+        <v>0</v>
+      </c>
       <c r="Q43" s="3">
         <f t="shared" ref="Q43:Q74" si="9">+IFERROR(P43/H43,0)</f>
         <v>0</v>
       </c>
-      <c r="R43" s="2"/>
+      <c r="R43" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
       <c r="I44" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M44" s="2"/>
+      <c r="M44" s="2">
+        <v>0</v>
+      </c>
       <c r="N44" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P44" s="2"/>
+      <c r="P44" s="2">
+        <v>0</v>
+      </c>
       <c r="Q44" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R44" s="2"/>
+      <c r="R44" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
+      <c r="H45" s="2">
+        <v>0</v>
+      </c>
       <c r="I45" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M45" s="2"/>
+      <c r="M45" s="2">
+        <v>0</v>
+      </c>
       <c r="N45" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P45" s="2"/>
+      <c r="P45" s="2">
+        <v>0</v>
+      </c>
       <c r="Q45" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R45" s="2"/>
+      <c r="R45" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
+      <c r="H46" s="2">
+        <v>0</v>
+      </c>
       <c r="I46" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M46" s="2"/>
+      <c r="M46" s="2">
+        <v>0</v>
+      </c>
       <c r="N46" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P46" s="2"/>
+      <c r="P46" s="2">
+        <v>0</v>
+      </c>
       <c r="Q46" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R46" s="2"/>
+      <c r="R46" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
+      <c r="H47" s="2">
+        <v>0</v>
+      </c>
       <c r="I47" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M47" s="2"/>
+      <c r="M47" s="2">
+        <v>0</v>
+      </c>
       <c r="N47" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P47" s="2"/>
+      <c r="P47" s="2">
+        <v>0</v>
+      </c>
       <c r="Q47" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R47" s="2"/>
+      <c r="R47" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
+      <c r="H48" s="2">
+        <v>0</v>
+      </c>
       <c r="I48" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M48" s="2"/>
+      <c r="M48" s="2">
+        <v>0</v>
+      </c>
       <c r="N48" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P48" s="2"/>
+      <c r="P48" s="2">
+        <v>0</v>
+      </c>
       <c r="Q48" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R48" s="2"/>
+      <c r="R48" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
+      <c r="H49" s="2">
+        <v>0</v>
+      </c>
       <c r="I49" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M49" s="2"/>
+      <c r="M49" s="2">
+        <v>0</v>
+      </c>
       <c r="N49" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P49" s="2"/>
+      <c r="P49" s="2">
+        <v>0</v>
+      </c>
       <c r="Q49" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R49" s="2"/>
+      <c r="R49" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
+      <c r="H50" s="2">
+        <v>0</v>
+      </c>
       <c r="I50" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M50" s="2"/>
+      <c r="M50" s="2">
+        <v>0</v>
+      </c>
       <c r="N50" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P50" s="2"/>
+      <c r="P50" s="2">
+        <v>0</v>
+      </c>
       <c r="Q50" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R50" s="2"/>
+      <c r="R50" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
+      <c r="H51" s="2">
+        <v>0</v>
+      </c>
       <c r="I51" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M51" s="2"/>
+      <c r="M51" s="2">
+        <v>0</v>
+      </c>
       <c r="N51" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P51" s="2"/>
+      <c r="P51" s="2">
+        <v>0</v>
+      </c>
       <c r="Q51" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R51" s="2"/>
+      <c r="R51" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
+      <c r="H52" s="2">
+        <v>0</v>
+      </c>
       <c r="I52" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M52" s="2"/>
+      <c r="M52" s="2">
+        <v>0</v>
+      </c>
       <c r="N52" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P52" s="2"/>
+      <c r="P52" s="2">
+        <v>0</v>
+      </c>
       <c r="Q52" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R52" s="2"/>
+      <c r="R52" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
+      <c r="H53" s="2">
+        <v>0</v>
+      </c>
       <c r="I53" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M53" s="2"/>
+      <c r="M53" s="2">
+        <v>0</v>
+      </c>
       <c r="N53" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P53" s="2"/>
+      <c r="P53" s="2">
+        <v>0</v>
+      </c>
       <c r="Q53" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R53" s="2"/>
+      <c r="R53" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
+      <c r="H54" s="2">
+        <v>0</v>
+      </c>
       <c r="I54" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M54" s="2"/>
+      <c r="M54" s="2">
+        <v>0</v>
+      </c>
       <c r="N54" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P54" s="2"/>
+      <c r="P54" s="2">
+        <v>0</v>
+      </c>
       <c r="Q54" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R54" s="2"/>
+      <c r="R54" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
+      <c r="H55" s="2">
+        <v>0</v>
+      </c>
       <c r="I55" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M55" s="2"/>
+      <c r="M55" s="2">
+        <v>0</v>
+      </c>
       <c r="N55" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P55" s="2"/>
+      <c r="P55" s="2">
+        <v>0</v>
+      </c>
       <c r="Q55" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R55" s="2"/>
+      <c r="R55" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
+      <c r="H56" s="2">
+        <v>0</v>
+      </c>
       <c r="I56" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M56" s="2"/>
+      <c r="M56" s="2">
+        <v>0</v>
+      </c>
       <c r="N56" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P56" s="2"/>
+      <c r="P56" s="2">
+        <v>0</v>
+      </c>
       <c r="Q56" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R56" s="2"/>
+      <c r="R56" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
+      <c r="H57" s="2">
+        <v>0</v>
+      </c>
       <c r="I57" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M57" s="2"/>
+      <c r="M57" s="2">
+        <v>0</v>
+      </c>
       <c r="N57" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P57" s="2"/>
+      <c r="P57" s="2">
+        <v>0</v>
+      </c>
       <c r="Q57" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R57" s="2"/>
+      <c r="R57" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
+      <c r="H58" s="2">
+        <v>0</v>
+      </c>
       <c r="I58" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M58" s="2"/>
+      <c r="M58" s="2">
+        <v>0</v>
+      </c>
       <c r="N58" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P58" s="2"/>
+      <c r="P58" s="2">
+        <v>0</v>
+      </c>
       <c r="Q58" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R58" s="2"/>
+      <c r="R58" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
+      <c r="H59" s="2">
+        <v>0</v>
+      </c>
       <c r="I59" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M59" s="2"/>
+      <c r="M59" s="2">
+        <v>0</v>
+      </c>
       <c r="N59" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P59" s="2"/>
+      <c r="P59" s="2">
+        <v>0</v>
+      </c>
       <c r="Q59" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R59" s="2"/>
+      <c r="R59" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
+      <c r="H60" s="2">
+        <v>0</v>
+      </c>
       <c r="I60" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M60" s="2"/>
+      <c r="M60" s="2">
+        <v>0</v>
+      </c>
       <c r="N60" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P60" s="2"/>
+      <c r="P60" s="2">
+        <v>0</v>
+      </c>
       <c r="Q60" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R60" s="2"/>
+      <c r="R60" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
+      <c r="H61" s="2">
+        <v>0</v>
+      </c>
       <c r="I61" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M61" s="2"/>
+      <c r="M61" s="2">
+        <v>0</v>
+      </c>
       <c r="N61" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P61" s="2"/>
+      <c r="P61" s="2">
+        <v>0</v>
+      </c>
       <c r="Q61" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R61" s="2"/>
+      <c r="R61" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
+      <c r="H62" s="2">
+        <v>0</v>
+      </c>
       <c r="I62" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M62" s="2"/>
+      <c r="M62" s="2">
+        <v>0</v>
+      </c>
       <c r="N62" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P62" s="2"/>
+      <c r="P62" s="2">
+        <v>0</v>
+      </c>
       <c r="Q62" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R62" s="2"/>
+      <c r="R62" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
+      <c r="H63" s="2">
+        <v>0</v>
+      </c>
       <c r="I63" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M63" s="2"/>
+      <c r="M63" s="2">
+        <v>0</v>
+      </c>
       <c r="N63" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P63" s="2"/>
+      <c r="P63" s="2">
+        <v>0</v>
+      </c>
       <c r="Q63" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R63" s="2"/>
+      <c r="R63" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
+      <c r="H64" s="2">
+        <v>0</v>
+      </c>
       <c r="I64" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M64" s="2"/>
+      <c r="M64" s="2">
+        <v>0</v>
+      </c>
       <c r="N64" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P64" s="2"/>
+      <c r="P64" s="2">
+        <v>0</v>
+      </c>
       <c r="Q64" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R64" s="2"/>
+      <c r="R64" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
+      <c r="H65" s="2">
+        <v>0</v>
+      </c>
       <c r="I65" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M65" s="2"/>
+      <c r="M65" s="2">
+        <v>0</v>
+      </c>
       <c r="N65" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P65" s="2"/>
+      <c r="P65" s="2">
+        <v>0</v>
+      </c>
       <c r="Q65" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R65" s="2"/>
+      <c r="R65" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
+      <c r="H66" s="2">
+        <v>0</v>
+      </c>
       <c r="I66" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M66" s="2"/>
+      <c r="M66" s="2">
+        <v>0</v>
+      </c>
       <c r="N66" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P66" s="2"/>
+      <c r="P66" s="2">
+        <v>0</v>
+      </c>
       <c r="Q66" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R66" s="2"/>
+      <c r="R66" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
+      <c r="H67" s="2">
+        <v>0</v>
+      </c>
       <c r="I67" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M67" s="2"/>
+      <c r="M67" s="2">
+        <v>0</v>
+      </c>
       <c r="N67" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P67" s="2"/>
+      <c r="P67" s="2">
+        <v>0</v>
+      </c>
       <c r="Q67" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R67" s="2"/>
+      <c r="R67" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
+      <c r="H68" s="2">
+        <v>0</v>
+      </c>
       <c r="I68" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M68" s="2"/>
+      <c r="M68" s="2">
+        <v>0</v>
+      </c>
       <c r="N68" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P68" s="2"/>
+      <c r="P68" s="2">
+        <v>0</v>
+      </c>
       <c r="Q68" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R68" s="2"/>
+      <c r="R68" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
+      <c r="H69" s="2">
+        <v>0</v>
+      </c>
       <c r="I69" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M69" s="2"/>
+      <c r="M69" s="2">
+        <v>0</v>
+      </c>
       <c r="N69" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P69" s="2"/>
+      <c r="P69" s="2">
+        <v>0</v>
+      </c>
       <c r="Q69" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R69" s="2"/>
+      <c r="R69" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
+      <c r="H70" s="2">
+        <v>0</v>
+      </c>
       <c r="I70" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M70" s="2"/>
+      <c r="M70" s="2">
+        <v>0</v>
+      </c>
       <c r="N70" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P70" s="2"/>
+      <c r="P70" s="2">
+        <v>0</v>
+      </c>
       <c r="Q70" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R70" s="2"/>
+      <c r="R70" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
+      <c r="H71" s="2">
+        <v>0</v>
+      </c>
       <c r="I71" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M71" s="2"/>
+      <c r="M71" s="2">
+        <v>0</v>
+      </c>
       <c r="N71" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P71" s="2"/>
+      <c r="P71" s="2">
+        <v>0</v>
+      </c>
       <c r="Q71" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R71" s="2"/>
+      <c r="R71" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
+      <c r="H72" s="2">
+        <v>0</v>
+      </c>
       <c r="I72" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M72" s="2"/>
+      <c r="M72" s="2">
+        <v>0</v>
+      </c>
       <c r="N72" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P72" s="2"/>
+      <c r="P72" s="2">
+        <v>0</v>
+      </c>
       <c r="Q72" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R72" s="2"/>
+      <c r="R72" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
+      <c r="H73" s="2">
+        <v>0</v>
+      </c>
       <c r="I73" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M73" s="2"/>
+      <c r="M73" s="2">
+        <v>0</v>
+      </c>
       <c r="N73" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P73" s="2"/>
+      <c r="P73" s="2">
+        <v>0</v>
+      </c>
       <c r="Q73" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R73" s="2"/>
+      <c r="R73" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
+      <c r="H74" s="2">
+        <v>0</v>
+      </c>
       <c r="I74" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M74" s="2"/>
+      <c r="M74" s="2">
+        <v>0</v>
+      </c>
       <c r="N74" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P74" s="2"/>
+      <c r="P74" s="2">
+        <v>0</v>
+      </c>
       <c r="Q74" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R74" s="2"/>
+      <c r="R74" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
+      <c r="H75" s="2">
+        <v>0</v>
+      </c>
       <c r="I75" s="3">
-        <f t="shared" ref="I75:I106" si="10">+IFERROR(H75/G75,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M75" s="2"/>
+        <f t="shared" ref="I75:I100" si="10">+IFERROR(H75/G75,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M75" s="2">
+        <v>0</v>
+      </c>
       <c r="N75" s="3">
-        <f t="shared" ref="N75:N106" si="11">+IFERROR(M75/H75,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P75" s="2"/>
+        <f t="shared" ref="N75:N100" si="11">+IFERROR(M75/H75,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P75" s="2">
+        <v>0</v>
+      </c>
       <c r="Q75" s="3">
-        <f t="shared" ref="Q75:Q106" si="12">+IFERROR(P75/H75,0)</f>
-        <v>0</v>
-      </c>
-      <c r="R75" s="2"/>
+        <f t="shared" ref="Q75:Q100" si="12">+IFERROR(P75/H75,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R75" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
+      <c r="H76" s="2">
+        <v>0</v>
+      </c>
       <c r="I76" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M76" s="2"/>
+      <c r="M76" s="2">
+        <v>0</v>
+      </c>
       <c r="N76" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="P76" s="2"/>
+      <c r="P76" s="2">
+        <v>0</v>
+      </c>
       <c r="Q76" s="3">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="R76" s="2"/>
+      <c r="R76" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
+      <c r="H77" s="2">
+        <v>0</v>
+      </c>
       <c r="I77" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M77" s="2"/>
+      <c r="M77" s="2">
+        <v>0</v>
+      </c>
       <c r="N77" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="P77" s="2"/>
+      <c r="P77" s="2">
+        <v>0</v>
+      </c>
       <c r="Q77" s="3">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="R77" s="2"/>
+      <c r="R77" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
+      <c r="H78" s="2">
+        <v>0</v>
+      </c>
       <c r="I78" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M78" s="2"/>
+      <c r="M78" s="2">
+        <v>0</v>
+      </c>
       <c r="N78" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="P78" s="2"/>
+      <c r="P78" s="2">
+        <v>0</v>
+      </c>
       <c r="Q78" s="3">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="R78" s="2"/>
+      <c r="R78" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
+      <c r="H79" s="2">
+        <v>0</v>
+      </c>
       <c r="I79" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M79" s="2"/>
+      <c r="M79" s="2">
+        <v>0</v>
+      </c>
       <c r="N79" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="P79" s="2"/>
+      <c r="P79" s="2">
+        <v>0</v>
+      </c>
       <c r="Q79" s="3">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="R79" s="2"/>
+      <c r="R79" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
+      <c r="H80" s="2">
+        <v>0</v>
+      </c>
       <c r="I80" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M80" s="2"/>
+      <c r="M80" s="2">
+        <v>0</v>
+      </c>
       <c r="N80" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="P80" s="2"/>
+      <c r="P80" s="2">
+        <v>0</v>
+      </c>
       <c r="Q80" s="3">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="R80" s="2"/>
+      <c r="R80" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="81" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
+      <c r="H81" s="2">
+        <v>0</v>
+      </c>
       <c r="I81" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M81" s="2"/>
+      <c r="M81" s="2">
+        <v>0</v>
+      </c>
       <c r="N81" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="P81" s="2"/>
+      <c r="P81" s="2">
+        <v>0</v>
+      </c>
       <c r="Q81" s="3">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="R81" s="2"/>
+      <c r="R81" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
+      <c r="H82" s="2">
+        <v>0</v>
+      </c>
       <c r="I82" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M82" s="2"/>
+      <c r="M82" s="2">
+        <v>0</v>
+      </c>
       <c r="N82" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="P82" s="2"/>
+      <c r="P82" s="2">
+        <v>0</v>
+      </c>
       <c r="Q82" s="3">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="R82" s="2"/>
+      <c r="R82" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
+      <c r="H83" s="2">
+        <v>0</v>
+      </c>
       <c r="I83" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M83" s="2"/>
+      <c r="M83" s="2">
+        <v>0</v>
+      </c>
       <c r="N83" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="P83" s="2"/>
+      <c r="P83" s="2">
+        <v>0</v>
+      </c>
       <c r="Q83" s="3">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="R83" s="2"/>
+      <c r="R83" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="84" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
+      <c r="H84" s="2">
+        <v>0</v>
+      </c>
       <c r="I84" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M84" s="2"/>
+      <c r="M84" s="2">
+        <v>0</v>
+      </c>
       <c r="N84" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="P84" s="2"/>
+      <c r="P84" s="2">
+        <v>0</v>
+      </c>
       <c r="Q84" s="3">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="R84" s="2"/>
+      <c r="R84" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
+      <c r="H85" s="2">
+        <v>0</v>
+      </c>
       <c r="I85" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M85" s="2"/>
+      <c r="M85" s="2">
+        <v>0</v>
+      </c>
       <c r="N85" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="P85" s="2"/>
+      <c r="P85" s="2">
+        <v>0</v>
+      </c>
       <c r="Q85" s="3">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="R85" s="2"/>
+      <c r="R85" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
+      <c r="H86" s="2">
+        <v>0</v>
+      </c>
       <c r="I86" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M86" s="2"/>
+      <c r="M86" s="2">
+        <v>0</v>
+      </c>
       <c r="N86" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="P86" s="2"/>
+      <c r="P86" s="2">
+        <v>0</v>
+      </c>
       <c r="Q86" s="3">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="R86" s="2"/>
+      <c r="R86" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="87" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
+      <c r="H87" s="2">
+        <v>0</v>
+      </c>
       <c r="I87" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M87" s="2"/>
+      <c r="M87" s="2">
+        <v>0</v>
+      </c>
       <c r="N87" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="P87" s="2"/>
+      <c r="P87" s="2">
+        <v>0</v>
+      </c>
       <c r="Q87" s="3">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="R87" s="2"/>
+      <c r="R87" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
+      <c r="H88" s="2">
+        <v>0</v>
+      </c>
       <c r="I88" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M88" s="2"/>
+      <c r="M88" s="2">
+        <v>0</v>
+      </c>
       <c r="N88" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="P88" s="2"/>
+      <c r="P88" s="2">
+        <v>0</v>
+      </c>
       <c r="Q88" s="3">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="R88" s="2"/>
+      <c r="R88" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
+      <c r="H89" s="2">
+        <v>0</v>
+      </c>
       <c r="I89" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M89" s="2"/>
+      <c r="M89" s="2">
+        <v>0</v>
+      </c>
       <c r="N89" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="P89" s="2"/>
+      <c r="P89" s="2">
+        <v>0</v>
+      </c>
       <c r="Q89" s="3">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="R89" s="2"/>
+      <c r="R89" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="90" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
+      <c r="H90" s="2">
+        <v>0</v>
+      </c>
       <c r="I90" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M90" s="2"/>
+      <c r="M90" s="2">
+        <v>0</v>
+      </c>
       <c r="N90" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="P90" s="2"/>
+      <c r="P90" s="2">
+        <v>0</v>
+      </c>
       <c r="Q90" s="3">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="R90" s="2"/>
+      <c r="R90" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
+      <c r="H91" s="2">
+        <v>0</v>
+      </c>
       <c r="I91" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M91" s="2"/>
+      <c r="M91" s="2">
+        <v>0</v>
+      </c>
       <c r="N91" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="P91" s="2"/>
+      <c r="P91" s="2">
+        <v>0</v>
+      </c>
       <c r="Q91" s="3">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="R91" s="2"/>
+      <c r="R91" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
+      <c r="H92" s="2">
+        <v>0</v>
+      </c>
       <c r="I92" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M92" s="2"/>
+      <c r="M92" s="2">
+        <v>0</v>
+      </c>
       <c r="N92" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="P92" s="2"/>
+      <c r="P92" s="2">
+        <v>0</v>
+      </c>
       <c r="Q92" s="3">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="R92" s="2"/>
+      <c r="R92" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
+      <c r="H93" s="2">
+        <v>0</v>
+      </c>
       <c r="I93" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M93" s="2"/>
+      <c r="M93" s="2">
+        <v>0</v>
+      </c>
       <c r="N93" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="P93" s="2"/>
+      <c r="P93" s="2">
+        <v>0</v>
+      </c>
       <c r="Q93" s="3">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="R93" s="2"/>
+      <c r="R93" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="94" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
+      <c r="H94" s="2">
+        <v>0</v>
+      </c>
       <c r="I94" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M94" s="2"/>
+      <c r="M94" s="2">
+        <v>0</v>
+      </c>
       <c r="N94" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="P94" s="2"/>
+      <c r="P94" s="2">
+        <v>0</v>
+      </c>
       <c r="Q94" s="3">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="R94" s="2"/>
+      <c r="R94" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="95" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
+      <c r="H95" s="2">
+        <v>0</v>
+      </c>
       <c r="I95" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M95" s="2"/>
+      <c r="M95" s="2">
+        <v>0</v>
+      </c>
       <c r="N95" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="P95" s="2"/>
+      <c r="P95" s="2">
+        <v>0</v>
+      </c>
       <c r="Q95" s="3">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="R95" s="2"/>
+      <c r="R95" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="96" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
+      <c r="H96" s="2">
+        <v>0</v>
+      </c>
       <c r="I96" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M96" s="2"/>
+      <c r="M96" s="2">
+        <v>0</v>
+      </c>
       <c r="N96" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="P96" s="2"/>
+      <c r="P96" s="2">
+        <v>0</v>
+      </c>
       <c r="Q96" s="3">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="R96" s="2"/>
+      <c r="R96" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="97" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
+      <c r="H97" s="2">
+        <v>0</v>
+      </c>
       <c r="I97" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M97" s="2"/>
+      <c r="M97" s="2">
+        <v>0</v>
+      </c>
       <c r="N97" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="P97" s="2"/>
+      <c r="P97" s="2">
+        <v>0</v>
+      </c>
       <c r="Q97" s="3">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="R97" s="2"/>
+      <c r="R97" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="98" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
+      <c r="H98" s="2">
+        <v>0</v>
+      </c>
       <c r="I98" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M98" s="2"/>
+      <c r="M98" s="2">
+        <v>0</v>
+      </c>
       <c r="N98" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="P98" s="2"/>
+      <c r="P98" s="2">
+        <v>0</v>
+      </c>
       <c r="Q98" s="3">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="R98" s="2"/>
+      <c r="R98" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
+      <c r="H99" s="2">
+        <v>0</v>
+      </c>
       <c r="I99" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M99" s="2"/>
+      <c r="M99" s="2">
+        <v>0</v>
+      </c>
       <c r="N99" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="P99" s="2"/>
+      <c r="P99" s="2">
+        <v>0</v>
+      </c>
       <c r="Q99" s="3">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="R99" s="2"/>
+      <c r="R99" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="100" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
+      <c r="H100" s="2">
+        <v>0</v>
+      </c>
       <c r="I100" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M100" s="2"/>
+      <c r="M100" s="2">
+        <v>0</v>
+      </c>
       <c r="N100" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="P100" s="2"/>
+      <c r="P100" s="2">
+        <v>0</v>
+      </c>
       <c r="Q100" s="3">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="R100" s="2"/>
+      <c r="R100" s="2">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Plantilla_Débitos_1.xlsx
+++ b/Plantilla_Débitos_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knunez\Documents\Mi proyecto\Proyecto convertidor de facturas\Final v1\Detalle-de-factura-y-refa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC71A834-B377-4960-8B94-26D2E3ECDA49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59B6645-A06B-41A2-A079-411C04B05CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FE56A788-B40B-4ED6-87C4-9F6FB9635C81}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{FE56A788-B40B-4ED6-87C4-9F6FB9635C81}"/>
   </bookViews>
   <sheets>
     <sheet name="Listas" sheetId="1" r:id="rId1"/>
@@ -36,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="93">
   <si>
     <t>SECTOR</t>
   </si>
@@ -285,7 +307,37 @@
     <t>SEGÚN NORMAS NOMENCLADOR NACIONAL</t>
   </si>
   <si>
-    <t>DIFERENCIA DE VALOR EN DETALLE</t>
+    <t>DIFERENCIA DE VALOR EN DETALLE DE DEBITO</t>
+  </si>
+  <si>
+    <t>ANALISIS DE DEBITO</t>
+  </si>
+  <si>
+    <t>OBRA SOCIAL</t>
+  </si>
+  <si>
+    <t>FC XXXX XXXXX</t>
+  </si>
+  <si>
+    <t>CODIGO DE OBRA SOCIAL</t>
+  </si>
+  <si>
+    <t>AMBITO</t>
+  </si>
+  <si>
+    <t>BONIFICACIÓN / ACUERDO CON COMERCIAL</t>
+  </si>
+  <si>
+    <t>GUARDIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIRUGIA AMBULATORIA </t>
+  </si>
+  <si>
+    <t>INTERNACION</t>
+  </si>
+  <si>
+    <t>CONSULTORIO EXT</t>
   </si>
 </sst>
 </file>
@@ -295,7 +347,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,16 +368,34 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -333,12 +403,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -348,12 +428,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Énfasis1" xfId="2" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="10">
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
     </dxf>
@@ -372,6 +458,61 @@
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -385,12 +526,73 @@
 </styleSheet>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+</richValueRels>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5AC9A4D2-A22F-4D0D-B0B6-74C270D1D34A}" name="ADMIN" displayName="ADMIN" ref="B1:B39" totalsRowShown="0">
-  <autoFilter ref="B1:B39" xr:uid="{5AC9A4D2-A22F-4D0D-B0B6-74C270D1D34A}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B36">
-    <sortCondition descending="1" ref="B1:B36"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5AC9A4D2-A22F-4D0D-B0B6-74C270D1D34A}" name="ADMIN" displayName="ADMIN" ref="B1:B40" totalsRowShown="0">
+  <autoFilter ref="B1:B40" xr:uid="{5AC9A4D2-A22F-4D0D-B0B6-74C270D1D34A}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{A5CE203A-F038-4F1D-BA69-656692299849}" name="ADMIN"/>
   </tableColumns>
@@ -409,8 +611,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2976D8C7-EDDB-4D66-87B6-856995ED5FD5}" name="COMERCIAL" displayName="COMERCIAL" ref="D1:D7" totalsRowShown="0">
-  <autoFilter ref="D1:D7" xr:uid="{2976D8C7-EDDB-4D66-87B6-856995ED5FD5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2976D8C7-EDDB-4D66-87B6-856995ED5FD5}" name="COMERCIAL" displayName="COMERCIAL" ref="D1:D8" totalsRowShown="0">
+  <autoFilter ref="D1:D8" xr:uid="{2976D8C7-EDDB-4D66-87B6-856995ED5FD5}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{BF29E51D-4125-4D03-A373-14DB601FCBD2}" name="COMERCIAL"/>
   </tableColumns>
@@ -429,6 +631,16 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{413FE2FB-13A1-4506-956C-ABDEF2F2D59D}" name="Tabla5" displayName="Tabla5" ref="E1:E5" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" headerRowCellStyle="Énfasis1" dataCellStyle="Énfasis1">
+  <autoFilter ref="E1:E5" xr:uid="{413FE2FB-13A1-4506-956C-ABDEF2F2D59D}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{E307EA15-0E6E-43E3-9D4C-0B8E2F297343}" name="AMBITO" dataDxfId="6" dataCellStyle="Énfasis1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{C7BE95ED-D9CA-4F56-AFE1-02CCCCD86E35}" name="Tabla_Debitos" displayName="Tabla_Debitos" ref="A2:T100" totalsRowShown="0">
   <autoFilter ref="A2:T100" xr:uid="{C7BE95ED-D9CA-4F56-AFE1-02CCCCD86E35}"/>
   <tableColumns count="20">
@@ -780,10 +992,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5AFBA5A-0C3C-4B50-A1CC-805A185E2404}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -792,9 +1004,10 @@
     <col min="2" max="2" width="55.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="52.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -807,13 +1020,16 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -821,13 +1037,16 @@
       <c r="D2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -835,13 +1054,16 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -849,10 +1071,13 @@
       <c r="D4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -860,10 +1085,13 @@
       <c r="D5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
@@ -872,9 +1100,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -883,71 +1111,74 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>72</v>
       </c>
@@ -957,7 +1188,7 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
         <v>35</v>
@@ -965,7 +1196,7 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
         <v>37</v>
@@ -973,7 +1204,7 @@
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
         <v>39</v>
@@ -981,7 +1212,7 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
@@ -991,77 +1222,77 @@
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.3">
@@ -1079,13 +1310,19 @@
         <v>82</v>
       </c>
     </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="4">
+  <tableParts count="5">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1094,14 +1331,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82FF8513-42F3-4A3F-AAB0-87387EA48889}">
   <dimension ref="A1:T100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" customWidth="1"/>
     <col min="4" max="4" width="13.21875" customWidth="1"/>
     <col min="6" max="6" width="15.21875" customWidth="1"/>
@@ -1109,18 +1347,31 @@
     <col min="8" max="8" width="18" customWidth="1"/>
     <col min="10" max="10" width="21.44140625" customWidth="1"/>
     <col min="13" max="13" width="21.88671875" customWidth="1"/>
-    <col min="14" max="14" width="17.109375" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" customWidth="1"/>
     <col min="15" max="15" width="22.33203125" customWidth="1"/>
-    <col min="16" max="16" width="11.88671875" customWidth="1"/>
-    <col min="17" max="17" width="15.6640625" customWidth="1"/>
+    <col min="16" max="16" width="16.21875" customWidth="1"/>
+    <col min="17" max="17" width="9" customWidth="1"/>
     <col min="18" max="18" width="13.33203125" customWidth="1"/>
     <col min="19" max="19" width="12.5546875" customWidth="1"/>
     <col min="20" max="20" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="4"/>
+      <c r="A1" s="1" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -3940,13 +4191,19 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A8C5DC5C-309F-462E-B49A-78CBEA8BFAE3}">
           <x14:formula1>
             <xm:f>Listas!$A$2:$A$4</xm:f>
           </x14:formula1>
           <xm:sqref>K3:K100</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0A0DEA5B-5A48-4CD9-B174-3665DC4CB3FC}">
+          <x14:formula1>
+            <xm:f>Listas!$E$2:$E$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>F1:G1</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
